--- a/doc/業務用アプリの例.xlsx
+++ b/doc/業務用アプリの例.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\AndroidTest\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\AndroidTest\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
     <t>2015.7.14　吉田</t>
     <rPh sb="10" eb="12">
@@ -55,6 +55,13 @@
     </rPh>
     <rPh sb="17" eb="20">
       <t>コウムテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>標準UX Flow</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジュン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -24358,8 +24365,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14519237" y="2497295"/>
-          <a:ext cx="758372" cy="1281520"/>
+          <a:off x="14586472" y="2382034"/>
+          <a:ext cx="761574" cy="1219888"/>
           <a:chOff x="1463040" y="660763"/>
           <a:chExt cx="1851660" cy="2890157"/>
         </a:xfrm>
@@ -25337,8 +25344,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14518164" y="4865737"/>
-          <a:ext cx="758372" cy="1286599"/>
+          <a:off x="14585399" y="4627212"/>
+          <a:ext cx="761574" cy="1224966"/>
           <a:chOff x="1564325" y="4236484"/>
           <a:chExt cx="2085230" cy="3081840"/>
         </a:xfrm>
@@ -25771,8 +25778,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="15479678" y="4861179"/>
-          <a:ext cx="758372" cy="1286599"/>
+          <a:off x="15550115" y="4622654"/>
+          <a:ext cx="761574" cy="1224966"/>
           <a:chOff x="4454828" y="4230623"/>
           <a:chExt cx="2085230" cy="3081840"/>
         </a:xfrm>
@@ -26236,16 +26243,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>263771</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>120168</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28448</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>30521</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>340179</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>163438</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>104856</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>73791</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -26254,8 +26261,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13190557" y="4787418"/>
-          <a:ext cx="756765" cy="1281520"/>
+          <a:off x="1395566" y="1442462"/>
+          <a:ext cx="759966" cy="1219888"/>
           <a:chOff x="3005086" y="2634348"/>
           <a:chExt cx="765139" cy="1222905"/>
         </a:xfrm>
@@ -26725,32 +26732,78 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>425823</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>248279</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>10373</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="図 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2476499" y="1143000"/>
+          <a:ext cx="3923809" cy="6666667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>13607</xdr:rowOff>
+      <xdr:colOff>291353</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>22411</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>517072</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>149678</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>369794</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="152" name="正方形/長方形 151"/>
+        <xdr:cNvPr id="22" name="正方形/長方形 21"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2911929" y="1496786"/>
-          <a:ext cx="4408714" cy="1020535"/>
+          <a:off x="3025588" y="3283323"/>
+          <a:ext cx="2129118" cy="481853"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -26774,6 +26827,1151 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>537882</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>605116</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="テキスト ボックス 22"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3272117" y="2117912"/>
+          <a:ext cx="2117911" cy="526676"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200"/>
+            <a:t>ログイン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>156883</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>448236</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>89646</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="テキスト ボックス 58"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2891118" y="2823882"/>
+          <a:ext cx="1658471" cy="526676"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+            <a:t>ユーザ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400"/>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>264458</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>73958</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>51546</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="正方形/長方形 59"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2998693" y="4175311"/>
+          <a:ext cx="2129118" cy="481853"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>219633</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>6723</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="テキスト ボックス 60"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2886634" y="3749488"/>
+          <a:ext cx="2117911" cy="526676"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+            <a:t>パスワード</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>376517</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>163607</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>198973</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>106744</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="図 61"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7234517" y="1099778"/>
+          <a:ext cx="3937256" cy="6909995"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>132226</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>34257</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>674914</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="正方形/長方形 67"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7676026" y="2712143"/>
+          <a:ext cx="542688" cy="254214"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>9/5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>（土）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>145677</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>661149</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>22411</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="テキスト ボックス 68"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7664824" y="2151529"/>
+          <a:ext cx="515472" cy="291353"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+            <a:t>８月</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>398930</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>73958</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>230843</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>29134</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="テキスト ボックス 69"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8601636" y="2158252"/>
+          <a:ext cx="515472" cy="291353"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+            <a:t>９月</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>618565</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>69477</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>627528</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>24653</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="テキスト ボックス 70"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9504830" y="2153771"/>
+          <a:ext cx="692522" cy="291353"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400"/>
+            <a:t>10</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+            <a:t>月</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>67237</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>481854</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="テキスト ボックス 71"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7586384" y="1714500"/>
+          <a:ext cx="1098176" cy="392206"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>取引一覧</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>159440</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>88687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>119743</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="正方形/長方形 73"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7703240" y="2940744"/>
+          <a:ext cx="412060" cy="205228"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>収入</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>431584</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>45143</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>288472</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>125186</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="正方形/長方形 74"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8661184" y="2723029"/>
+          <a:ext cx="542688" cy="254214"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>売上高</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>567656</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>45143</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>424544</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>125186</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="正方形/長方形 75"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8797256" y="2723029"/>
+          <a:ext cx="542688" cy="254214"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>632971</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>45143</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>489859</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>125186</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="正方形/長方形 76"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8176771" y="2723029"/>
+          <a:ext cx="542688" cy="254214"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>現金</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>665626</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>61472</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>408215</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>141514</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="正方形/長方形 77"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8209426" y="2913529"/>
+          <a:ext cx="1114189" cy="254214"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>洋服</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>KW-001-02</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>202983</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>39701</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>87086</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>119744</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="正方形/長方形 78"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9118383" y="2717587"/>
+          <a:ext cx="569903" cy="254214"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>\6,500</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>632969</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>34258</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="正方形/長方形 79"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9548369" y="2712144"/>
+          <a:ext cx="891030" cy="254214"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>外税</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>\520</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>426141</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>61473</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>283029</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>141515</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="正方形/長方形 80"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9341541" y="2913530"/>
+          <a:ext cx="542688" cy="254214"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>○○さま</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -27131,8 +28329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="J1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -27144,7 +28342,7 @@
     </row>
     <row r="2" spans="10:19" ht="18.75" x14ac:dyDescent="0.15">
       <c r="J2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/doc/業務用アプリの例.xlsx
+++ b/doc/業務用アプリの例.xlsx
@@ -15,7 +15,8 @@
     <sheet name="営業支援" sheetId="1" r:id="rId1"/>
     <sheet name="施工支援（工務店）" sheetId="3" r:id="rId2"/>
     <sheet name="施工支援（）" sheetId="2" r:id="rId3"/>
-    <sheet name="画面構成" sheetId="4" r:id="rId4"/>
+    <sheet name="UX（小売）" sheetId="5" r:id="rId4"/>
+    <sheet name="画面構成" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>2015.7.14　吉田</t>
     <rPh sb="10" eb="12">
@@ -62,6 +63,47 @@
     <t>標準UX Flow</t>
     <rPh sb="0" eb="2">
       <t>ヒョウジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.1　店舗購入</t>
+    <rPh sb="4" eb="6">
+      <t>テンポ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>顧客</t>
+    <rPh sb="0" eb="2">
+      <t>コキャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>売り子</t>
+    <rPh sb="0" eb="1">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１．販売に関するUX</t>
+    <rPh sb="2" eb="4">
+      <t>ハンバイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -104,12 +146,129 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -118,11 +277,38 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -24344,6 +24530,2556 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1571625</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="角丸四角形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="390525" y="1190625"/>
+          <a:ext cx="1476375" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>品物を持ってレジに行き、販売員に渡す</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1609725</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="角丸四角形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2152650" y="1200150"/>
+          <a:ext cx="1476375" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>金額を</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>POS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>（レジ）に入力する</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>33336</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1571625</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="角丸四角形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2114550" y="3462336"/>
+          <a:ext cx="1476375" cy="523876"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>入力完了キーを押す</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>108346</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>54761</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1584721</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>64287</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="角丸四角形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2132409" y="4888699"/>
+          <a:ext cx="1476375" cy="527447"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>顧客に金額を伝える</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>103583</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>92862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1579958</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>102388</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="角丸四角形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2122883" y="5579262"/>
+          <a:ext cx="1476375" cy="523876"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>品物を包装する</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>165496</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>169062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1641871</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>7137</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="角丸四角形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="460771" y="5484012"/>
+          <a:ext cx="1476375" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>支払いの準備をする</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1600200</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="角丸四角形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3867150" y="1800225"/>
+          <a:ext cx="1476375" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>販売トランザクションを開始する</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1609725</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="角丸四角形 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3876675" y="2524125"/>
+          <a:ext cx="1476375" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>入力された商品と金額を記録する</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>92866</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1638300</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>102391</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="角丸四角形 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3912394" y="4063600"/>
+          <a:ext cx="1476375" cy="527447"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>消費税を加えて合計金額を表示する</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1571625</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>80963</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="カギ線コネクタ 11"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="3" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1866900" y="1452563"/>
+          <a:ext cx="285750" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1609725</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>862013</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="カギ線コネクタ 13"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="3"/>
+          <a:endCxn id="8" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3629025" y="1462088"/>
+          <a:ext cx="976313" cy="338137"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>862013</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>871538</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="カギ線コネクタ 16"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="2"/>
+          <a:endCxn id="9" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4510088" y="2419349"/>
+          <a:ext cx="200025" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>833438</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>871538</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="カギ線コネクタ 19"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="2"/>
+          <a:endCxn id="4" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="3526633" y="2374106"/>
+          <a:ext cx="414336" cy="1762125"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1571625</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>900113</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>92866</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="カギ線コネクタ 22"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="10" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3590925" y="3724274"/>
+          <a:ext cx="1052513" cy="311942"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>846534</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>102392</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>900113</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>54762</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="カギ線コネクタ 27"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="2"/>
+          <a:endCxn id="5" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="3611764" y="3849881"/>
+          <a:ext cx="297652" cy="1779985"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>841772</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>64287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>846535</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>92862</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="カギ線コネクタ 30"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="2"/>
+          <a:endCxn id="6" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="2763441" y="5476868"/>
+          <a:ext cx="200025" cy="4763"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>903685</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>145248</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>108347</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>169061</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="カギ線コネクタ 34"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="1"/>
+          <a:endCxn id="7" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="1198960" y="5117298"/>
+          <a:ext cx="928687" cy="366713"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>113108</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>111912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1589483</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>121438</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="角丸四角形 37"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2132408" y="6455562"/>
+          <a:ext cx="1476375" cy="523876"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>品物を手渡す</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>165496</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>102387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1641871</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>111912</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="角丸四角形 38"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="460771" y="6960387"/>
+          <a:ext cx="1476375" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>品物を受け取る</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>841770</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>102388</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>851295</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>111912</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="カギ線コネクタ 39"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="38" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2689621" y="6274587"/>
+          <a:ext cx="352424" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>903685</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>30949</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>113109</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>102386</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="カギ線コネクタ 42"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="38" idx="1"/>
+          <a:endCxn id="39" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="1198960" y="6717499"/>
+          <a:ext cx="933449" cy="242887"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>175021</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>7137</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1651396</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>16662</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="角丸四角形 45"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="470296" y="7722387"/>
+          <a:ext cx="1476375" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>代金を支払う</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>903684</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>111911</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>913209</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>7136</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="カギ線コネクタ 46"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="39" idx="2"/>
+          <a:endCxn id="46" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="1084659" y="7598561"/>
+          <a:ext cx="238125" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>141683</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>83337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1618058</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>92863</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="角丸四角形 49"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2160983" y="8141487"/>
+          <a:ext cx="1476375" cy="523876"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>受取り金額を確認する</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1651396</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>97625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>879871</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>83337</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="カギ線コネクタ 50"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="46" idx="3"/>
+          <a:endCxn id="50" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1946671" y="7984325"/>
+          <a:ext cx="952500" cy="157162"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>151208</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>111912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1627583</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>121438</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="角丸四角形 53"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2170508" y="8855862"/>
+          <a:ext cx="1476375" cy="523876"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>受取り金額を入力する</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>879871</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>92862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>889396</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>111911</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="カギ線コネクタ 54"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="50" idx="2"/>
+          <a:endCxn id="54" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2808684" y="8755849"/>
+          <a:ext cx="190499" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>92866</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1590675</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>102391</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="角丸四角形 57"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3857625" y="9351166"/>
+          <a:ext cx="1476375" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>おつりを計算する</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1627583</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>30950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>852488</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>92866</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="カギ線コネクタ 58"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="54" idx="3"/>
+          <a:endCxn id="58" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3646883" y="9117800"/>
+          <a:ext cx="948930" cy="233366"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>140491</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1590675</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>150016</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="角丸四角形 62"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3857625" y="10084591"/>
+          <a:ext cx="1476375" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>レシートを印刷する</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>846138</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>108741</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>858838</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>146841</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="カギ線コネクタ 63"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="58" idx="2"/>
+          <a:endCxn id="63" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="4491038" y="9979816"/>
+          <a:ext cx="209550" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>141683</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>64287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1618058</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>73813</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="角丸四角形 66"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2160983" y="10522737"/>
+          <a:ext cx="1476375" cy="523876"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>入金しおつりとレシートを渡す</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>879871</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>59529</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>64287</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="カギ線コネクタ 67"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="63" idx="1"/>
+          <a:endCxn id="67" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="2899171" y="10346529"/>
+          <a:ext cx="958454" cy="176208"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>136921</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>26187</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1613296</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>35712</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="角丸四角形 70"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="432196" y="10998987"/>
+          <a:ext cx="1476375" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>おつりとレシートを受け取る</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>875110</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>154775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>141684</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>26187</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="カギ線コネクタ 71"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="67" idx="1"/>
+          <a:endCxn id="71" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="1170385" y="10784675"/>
+          <a:ext cx="990599" cy="214312"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>54766</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1590675</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>64291</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="角丸四角形 74"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3857625" y="11046616"/>
+          <a:ext cx="1476375" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>販売トランザクションを終了する</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>846138</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>156366</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>858838</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>61116</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="76" name="カギ線コネクタ 75"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="63" idx="2"/>
+          <a:endCxn id="75" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="4386263" y="10837066"/>
+          <a:ext cx="419100" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="円柱 78"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6067425" y="10820400"/>
+          <a:ext cx="1638300" cy="971550"/>
+        </a:xfrm>
+        <a:prstGeom prst="can">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>販売ＤＢ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1590675</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>145254</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="81" name="カギ線コネクタ 80"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="75" idx="3"/>
+          <a:endCxn id="79" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5334000" y="11306175"/>
+          <a:ext cx="733425" cy="2379"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="84" name="円柱 83"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8315325" y="9439275"/>
+          <a:ext cx="1638300" cy="971550"/>
+        </a:xfrm>
+        <a:prstGeom prst="can">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>仕訳ＤＢ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1590675</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>145254</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="85" name="カギ線コネクタ 84"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="75" idx="3"/>
+          <a:endCxn id="84" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5334000" y="9925050"/>
+          <a:ext cx="2981325" cy="1383504"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 12301"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="88" name="円柱 87"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10639425" y="8620125"/>
+          <a:ext cx="1638300" cy="971550"/>
+        </a:xfrm>
+        <a:prstGeom prst="can">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>総勘定元帳ＤＢ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="89" name="カギ線コネクタ 88"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="84" idx="4"/>
+          <a:endCxn id="88" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9953625" y="9105900"/>
+          <a:ext cx="685800" cy="819150"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="96" name="円柱 95"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6076950" y="12011025"/>
+          <a:ext cx="1638300" cy="971550"/>
+        </a:xfrm>
+        <a:prstGeom prst="can">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>在庫ＤＢ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1590675</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>145254</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="97" name="カギ線コネクタ 96"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="75" idx="3"/>
+          <a:endCxn id="96" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5334000" y="11308554"/>
+          <a:ext cx="742950" cy="1188246"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="101" name="角丸四角形 100"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8048625" y="7400925"/>
+          <a:ext cx="5057775" cy="3314700"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 5173"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>会計機能</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>419101</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>676276</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="102" name="角丸四角形 101"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5886451" y="10153650"/>
+          <a:ext cx="1981200" cy="3314700"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 5173"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>販売管理機能</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -28327,10 +31063,370 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E69"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I76" sqref="I76"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="2" customWidth="1"/>
+    <col min="2" max="2" width="1.875" customWidth="1"/>
+    <col min="3" max="6" width="22.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C7" s="3"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C8" s="3"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C9" s="3"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C10" s="3"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C11" s="3"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C12" s="3"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C13" s="3"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C14" s="3"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C15" s="3"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C16" s="3"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C17" s="3"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C18" s="3"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C19" s="3"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C20" s="3"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C21" s="3"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C22" s="3"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C23" s="3"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C24" s="3"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C25" s="3"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C26" s="3"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C27" s="3"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C28" s="3"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C29" s="3"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C30" s="3"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C31" s="3"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C32" s="3"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="4"/>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C33" s="3"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C34" s="3"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="4"/>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C35" s="3"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="4"/>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C36" s="3"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="4"/>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C37" s="3"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="4"/>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C38" s="3"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="4"/>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C39" s="3"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="4"/>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C40" s="3"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="4"/>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C41" s="3"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="4"/>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C42" s="3"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="4"/>
+    </row>
+    <row r="43" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C43" s="3"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="4"/>
+    </row>
+    <row r="44" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C44" s="3"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="4"/>
+    </row>
+    <row r="45" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C45" s="3"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="4"/>
+    </row>
+    <row r="46" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C46" s="3"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="4"/>
+    </row>
+    <row r="47" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C47" s="3"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="4"/>
+    </row>
+    <row r="48" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C48" s="3"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="4"/>
+    </row>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C49" s="3"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="4"/>
+    </row>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C50" s="3"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="4"/>
+    </row>
+    <row r="51" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C51" s="3"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="4"/>
+    </row>
+    <row r="52" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C52" s="3"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="4"/>
+    </row>
+    <row r="53" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C53" s="3"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="4"/>
+    </row>
+    <row r="54" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C54" s="3"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="4"/>
+    </row>
+    <row r="55" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C55" s="3"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="4"/>
+    </row>
+    <row r="56" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C56" s="3"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="4"/>
+    </row>
+    <row r="57" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C57" s="3"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="4"/>
+    </row>
+    <row r="58" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C58" s="3"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="4"/>
+    </row>
+    <row r="59" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C59" s="3"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="4"/>
+    </row>
+    <row r="60" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C60" s="3"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="4"/>
+    </row>
+    <row r="61" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C61" s="3"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="4"/>
+    </row>
+    <row r="62" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C62" s="3"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="4"/>
+    </row>
+    <row r="63" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C63" s="3"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="4"/>
+    </row>
+    <row r="64" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C64" s="3"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="4"/>
+    </row>
+    <row r="65" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C65" s="3"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="4"/>
+    </row>
+    <row r="66" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C66" s="3"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="4"/>
+    </row>
+    <row r="67" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C67" s="3"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="4"/>
+    </row>
+    <row r="68" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C68" s="3"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="4"/>
+    </row>
+    <row r="69" spans="3:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C69" s="5"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="J1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/doc/業務用アプリの例.xlsx
+++ b/doc/業務用アプリの例.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="営業支援" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>2015.7.14　吉田</t>
     <rPh sb="10" eb="12">
@@ -67,23 +67,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1.1　店舗購入</t>
-    <rPh sb="4" eb="6">
-      <t>テンポ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>コウニュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>顧客</t>
-    <rPh sb="0" eb="2">
-      <t>コキャク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>売り子</t>
     <rPh sb="0" eb="1">
       <t>ウ</t>
@@ -94,16 +77,79 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>システム</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>１．販売に関するUX</t>
     <rPh sb="2" eb="4">
       <t>ハンバイ</t>
     </rPh>
     <rPh sb="5" eb="6">
       <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.1　店舗販売</t>
+    <rPh sb="4" eb="6">
+      <t>テンポ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハンバイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ＰＯＳシステム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>客</t>
+    <rPh sb="0" eb="1">
+      <t>キャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２．予算入力に関するUX</t>
+    <rPh sb="2" eb="4">
+      <t>ヨサン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予算入力操作者</t>
+    <rPh sb="0" eb="2">
+      <t>ヨサン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>シャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会計システム</t>
+    <rPh sb="0" eb="2">
+      <t>カイケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２．１　予算入力</t>
+    <rPh sb="4" eb="6">
+      <t>ヨサン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -146,7 +192,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -271,13 +317,79 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -309,6 +421,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -26194,14 +26324,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>141683</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>64287</xdr:rowOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>7137</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1618058</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>73813</xdr:rowOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>16663</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -26210,7 +26340,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2160983" y="10522737"/>
+          <a:off x="2160983" y="12027687"/>
           <a:ext cx="1476375" cy="523876"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -26255,8 +26385,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>64287</xdr:rowOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>7137</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -26268,8 +26398,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="2899171" y="10346529"/>
-          <a:ext cx="958454" cy="176208"/>
+          <a:off x="2899171" y="10365579"/>
+          <a:ext cx="958454" cy="1662108"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -26299,14 +26429,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>136921</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>26187</xdr:rowOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>140487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1613296</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>35712</xdr:rowOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>150012</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -26315,7 +26445,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="432196" y="10998987"/>
+          <a:off x="432196" y="12503937"/>
           <a:ext cx="1476375" cy="523875"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -26354,14 +26484,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>875110</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>154775</xdr:rowOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>97625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>141684</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>26187</xdr:rowOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>140487</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -26373,7 +26503,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="1170385" y="10784675"/>
+          <a:off x="1170385" y="12289625"/>
           <a:ext cx="990599" cy="214312"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
@@ -26404,14 +26534,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>54766</xdr:rowOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>169066</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1590675</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>64291</xdr:rowOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>7141</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -26420,7 +26550,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3857625" y="11046616"/>
+          <a:off x="3857625" y="12361066"/>
           <a:ext cx="1476375" cy="523875"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -26459,28 +26589,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>846138</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>156366</xdr:rowOff>
+      <xdr:colOff>852489</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>121440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>858838</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>61116</xdr:rowOff>
+      <xdr:colOff>871539</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>169065</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="76" name="カギ線コネクタ 75"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="63" idx="2"/>
+          <a:stCxn id="77" idx="2"/>
           <a:endCxn id="75" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="4386263" y="10837066"/>
-          <a:ext cx="419100" cy="12700"/>
+          <a:off x="4495801" y="12242003"/>
+          <a:ext cx="219075" cy="19050"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -26519,7 +26649,7 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -26529,7 +26659,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6067425" y="10820400"/>
-          <a:ext cx="1638300" cy="971550"/>
+          <a:ext cx="1638300" cy="942975"/>
         </a:xfrm>
         <a:prstGeom prst="can">
           <a:avLst/>
@@ -26556,7 +26686,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>販売ＤＢ</a:t>
+            <a:t>販売ＴＢＬ</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -26568,13 +26698,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>1590675</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>128588</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>145254</xdr:rowOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>88104</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -26586,8 +26716,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5334000" y="11306175"/>
-          <a:ext cx="733425" cy="2379"/>
+          <a:off x="5334000" y="11291888"/>
+          <a:ext cx="733425" cy="1331116"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -26661,7 +26791,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>仕訳ＤＢ</a:t>
+            <a:t>仕訳ＴＢＬ</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -26678,8 +26808,8 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>145254</xdr:rowOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>88104</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -26692,11 +26822,11 @@
       <xdr:spPr>
         <a:xfrm flipV="1">
           <a:off x="5334000" y="9925050"/>
-          <a:ext cx="2981325" cy="1383504"/>
+          <a:ext cx="2981325" cy="2697954"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 12301"/>
+            <a:gd name="adj1" fmla="val 8466"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -26768,7 +26898,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>総勘定元帳ＤＢ</a:t>
+            <a:t>総勘定元帳ＴＢＬ</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -26832,13 +26962,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -26847,7 +26977,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6076950" y="12011025"/>
+          <a:off x="6076950" y="11849100"/>
           <a:ext cx="1638300" cy="971550"/>
         </a:xfrm>
         <a:prstGeom prst="can">
@@ -26875,7 +27005,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>在庫ＤＢ</a:t>
+            <a:t>在庫ＴＢＬ</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -26886,14 +27016,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1590675</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>145254</xdr:rowOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>88104</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -26904,9 +27034,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5334000" y="11308554"/>
-          <a:ext cx="742950" cy="1188246"/>
+        <a:xfrm flipV="1">
+          <a:off x="5334000" y="12334875"/>
+          <a:ext cx="742950" cy="288129"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -26944,8 +27074,8 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -26955,11 +27085,11 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8048625" y="7400925"/>
-          <a:ext cx="5057775" cy="3314700"/>
+          <a:ext cx="5057775" cy="5915025"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
-            <a:gd name="adj" fmla="val 5173"/>
+            <a:gd name="adj" fmla="val 2348"/>
           </a:avLst>
         </a:prstGeom>
         <a:noFill/>
@@ -27015,8 +27145,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>676276</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -27026,7 +27156,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5886451" y="10153650"/>
-          <a:ext cx="1981200" cy="3314700"/>
+          <a:ext cx="1981200" cy="3143250"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -27070,6 +27200,3232 @@
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
             <a:t>販売管理機能</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="フローチャート: 表示 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10496550" y="10629900"/>
+          <a:ext cx="1952625" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDisplay">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ＢＳ、ＰＬ、ＣＦ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>561974</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="カギ線コネクタ 51"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="84" idx="3"/>
+          <a:endCxn id="11" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="9539287" y="10006012"/>
+          <a:ext cx="552450" cy="1362075"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="フローチャート: 複数書類 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9753600" y="11620499"/>
+          <a:ext cx="3009900" cy="1571626"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMultidocument">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・流動比率</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・自己資本比率</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・総資本回転率</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・売上高総利益率、売上高営業利益率</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・損益分岐点</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・労働分配率</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>159446</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>166689</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="カギ線コネクタ 55"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="2"/>
+          <a:endCxn id="19" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="11307318" y="11454953"/>
+          <a:ext cx="323849" cy="7243"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="円柱 64"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8239125" y="14163675"/>
+          <a:ext cx="1638300" cy="971550"/>
+        </a:xfrm>
+        <a:prstGeom prst="can">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>社員ＴＢＬ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="円柱 65"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8248650" y="15354300"/>
+          <a:ext cx="1638300" cy="971550"/>
+        </a:xfrm>
+        <a:prstGeom prst="can">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>給与支払いＴＢＬ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180976</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="角丸四角形 68"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8058151" y="13496925"/>
+          <a:ext cx="1981200" cy="3314700"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 5173"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>人事管理機能</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>83357</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>428875</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="70" name="カギ線コネクタ 69"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="66" idx="4"/>
+          <a:endCxn id="19" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9886950" y="13132607"/>
+          <a:ext cx="1162300" cy="2707468"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>26191</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1590675</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>35716</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="角丸四角形 72"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3857625" y="10846591"/>
+          <a:ext cx="1476375" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>在庫ＤＢを更新する</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>846139</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>156365</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>858839</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>32540</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="74" name="カギ線コネクタ 73"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="63" idx="2"/>
+          <a:endCxn id="73" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="4486276" y="10737053"/>
+          <a:ext cx="219075" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>111916</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1609725</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>121441</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="角丸四角形 76"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3876675" y="11618116"/>
+          <a:ext cx="1476375" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>販売ＤＢを更新する</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>852489</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>64290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>871539</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>111915</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="78" name="カギ線コネクタ 77"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="77" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4495801" y="11499053"/>
+          <a:ext cx="219075" cy="19050"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="テキスト ボックス 44"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5762625" y="9267825"/>
+          <a:ext cx="1971675" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ＰＯＳシステムがあれば、会計にＵＩは不要？</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>104719</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1609725</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="角丸四角形 82"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="399994" y="18221325"/>
+          <a:ext cx="3229031" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>予算入力</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>メニューをタップする</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>273327</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>1860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1590676</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>51288</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="角丸四角形 85"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="573731" y="20465956"/>
+          <a:ext cx="3039176" cy="1397582"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 8480"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>予算値を入力する</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>販売予測（商品別）</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>購入予測（商品別）</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>人件費予測（社員別）</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>間接費入力（項目別）</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>]</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>112845</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>46479</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1617851</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>56005</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="87" name="角丸四角形 86"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="402736" y="19916457"/>
+          <a:ext cx="3227789" cy="531331"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>予算追加</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ボタンをクリックする</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>60298</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>162632</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1565304</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>3638</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="角丸四角形 89"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="360702" y="25682305"/>
+          <a:ext cx="3226833" cy="515083"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>メニューを選択するなどして、画面を切り替える。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1600200</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="92" name="角丸四角形 91"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3867150" y="1819275"/>
+          <a:ext cx="1476375" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>予算一覧画面を表示する</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>120513</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>8437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1596888</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>17963</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="94" name="角丸四角形 93"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3864571" y="22326245"/>
+          <a:ext cx="1476375" cy="515083"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>予算ＴＢＬに書く</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1609725</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>862013</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="98" name="カギ線コネクタ 97"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="83" idx="3"/>
+          <a:endCxn id="92" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3629025" y="18483263"/>
+          <a:ext cx="976313" cy="338137"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3957</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>862013</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>46480</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="100" name="カギ線コネクタ 99"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="92" idx="2"/>
+          <a:endCxn id="87" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="3157502" y="18476489"/>
+          <a:ext cx="299098" cy="2580839"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1590676</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>26574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>870296</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>102862</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="103" name="カギ線コネクタ 102"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="86" idx="3"/>
+          <a:endCxn id="203" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3612907" y="21164747"/>
+          <a:ext cx="1001447" cy="413327"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>858445</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>54408</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>862014</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>129938</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="104" name="カギ線コネクタ 103"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="211" idx="2"/>
+          <a:endCxn id="236" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="4482263" y="23672090"/>
+          <a:ext cx="244050" cy="3569"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1670538</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>3639</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1673715</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>7327</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="109" name="カギ線コネクタ 108"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="90" idx="2"/>
+          <a:endCxn id="252" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="1802168" y="26366163"/>
+          <a:ext cx="340726" cy="3177"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1674523</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>50440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>120257</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>85371</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="114" name="カギ線コネクタ 113"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="236" idx="1"/>
+          <a:endCxn id="166" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="1974927" y="24053440"/>
+          <a:ext cx="1889388" cy="540489"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="127" name="円柱 126"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6067425" y="10820400"/>
+          <a:ext cx="1638300" cy="942975"/>
+        </a:xfrm>
+        <a:prstGeom prst="can">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>販売ＴＢＬ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="129" name="円柱 128"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8315325" y="9439275"/>
+          <a:ext cx="1638300" cy="971550"/>
+        </a:xfrm>
+        <a:prstGeom prst="can">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>仕訳ＴＢＬ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="131" name="円柱 130"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10639425" y="8620125"/>
+          <a:ext cx="1638300" cy="971550"/>
+        </a:xfrm>
+        <a:prstGeom prst="can">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>総勘定元帳ＴＢＬ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="132" name="カギ線コネクタ 131"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="129" idx="4"/>
+          <a:endCxn id="131" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9953625" y="9105900"/>
+          <a:ext cx="685800" cy="819150"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="133" name="円柱 132"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6076950" y="11849100"/>
+          <a:ext cx="1638300" cy="971550"/>
+        </a:xfrm>
+        <a:prstGeom prst="can">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>在庫ＴＢＬ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="135" name="角丸四角形 134"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8048625" y="7400925"/>
+          <a:ext cx="5057775" cy="5915025"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 2348"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>会計機能</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>419101</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>676276</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="136" name="角丸四角形 135"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5886451" y="10153650"/>
+          <a:ext cx="1981200" cy="3143250"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 5173"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>販売管理機能</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="137" name="フローチャート: 表示 136"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10496550" y="10629900"/>
+          <a:ext cx="1952625" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDisplay">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ＢＳ、ＰＬ、ＣＦ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>561974</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="138" name="カギ線コネクタ 137"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="129" idx="3"/>
+          <a:endCxn id="137" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="9539287" y="10006012"/>
+          <a:ext cx="552450" cy="1362075"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="139" name="フローチャート: 複数書類 138"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9753600" y="11620499"/>
+          <a:ext cx="3009900" cy="1571626"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMultidocument">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・流動比率</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・自己資本比率</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・総資本回転率</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・売上高総利益率、売上高営業利益率</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・損益分岐点</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・労働分配率</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>159446</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>166689</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="140" name="カギ線コネクタ 139"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="137" idx="2"/>
+          <a:endCxn id="139" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="11307318" y="11454953"/>
+          <a:ext cx="323849" cy="7243"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="141" name="円柱 140"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8239125" y="14163675"/>
+          <a:ext cx="1638300" cy="971550"/>
+        </a:xfrm>
+        <a:prstGeom prst="can">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>社員ＴＢＬ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="142" name="円柱 141"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8248650" y="15354300"/>
+          <a:ext cx="1638300" cy="971550"/>
+        </a:xfrm>
+        <a:prstGeom prst="can">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>給与支払いＴＢＬ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180976</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="143" name="角丸四角形 142"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8058151" y="13496925"/>
+          <a:ext cx="1981200" cy="3314700"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 5173"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>人事管理機能</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>83357</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>428875</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="144" name="カギ線コネクタ 143"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="142" idx="4"/>
+          <a:endCxn id="139" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9886950" y="13132607"/>
+          <a:ext cx="1162300" cy="2707468"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1596888</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>97460</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>572966</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="148" name="カギ線コネクタ 147"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="94" idx="3"/>
+          <a:endCxn id="129" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5340946" y="22583787"/>
+          <a:ext cx="3797193" cy="3434850"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>67129</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>6062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>432289</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>73270</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="149" name="テキスト ボックス 148"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="367533" y="23334985"/>
+          <a:ext cx="365160" cy="235727"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>No.</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>341501</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>85372</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1285718</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>135067</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="166" name="フローチャート: 判断 165"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="641905" y="24593930"/>
+          <a:ext cx="2666044" cy="723772"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>入力完了？</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>341501</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>1860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>71088</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>110220</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="171" name="カギ線コネクタ 170"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="166" idx="1"/>
+          <a:endCxn id="86" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipH="1">
+          <a:off x="641905" y="20465956"/>
+          <a:ext cx="1451414" cy="4489860"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -20447"/>
+            <a:gd name="adj2" fmla="val 105091"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114396</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>87446</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1590771</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>96972</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="193" name="角丸四角形 192"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3858454" y="19708946"/>
+          <a:ext cx="1476375" cy="515084"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>予算入力画面を表示する</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1617851</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>135502</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>852584</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>87446</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="194" name="カギ線コネクタ 193"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="87" idx="3"/>
+          <a:endCxn id="193" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3640082" y="19588483"/>
+          <a:ext cx="956560" cy="120463"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>71088</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>96973</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>852584</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>1861</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="196" name="カギ線コネクタ 195"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="193" idx="2"/>
+          <a:endCxn id="86" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="3224018" y="19093332"/>
+          <a:ext cx="241926" cy="2503323"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>132108</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>102862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1608483</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>112388</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="203" name="角丸四角形 202"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3876166" y="21578074"/>
+          <a:ext cx="1476375" cy="515083"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>トランザクションを開始する</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>858701</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>112389</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>870296</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>8438</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="208" name="カギ線コネクタ 207"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="203" idx="2"/>
+          <a:endCxn id="94" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="4492013" y="22203904"/>
+          <a:ext cx="233088" cy="11595"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>123826</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>44881</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1600201</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>54407</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="211" name="角丸四角形 210"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3867884" y="23036766"/>
+          <a:ext cx="1476375" cy="515083"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>トランザクションをＣｏｍｍｉｔする</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>858700</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>17963</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>862013</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>44881</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="212" name="カギ線コネクタ 211"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="94" idx="2"/>
+          <a:endCxn id="211" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4506696" y="22937390"/>
+          <a:ext cx="195438" cy="3313"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1673716</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>135066</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1674524</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>162631</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="225" name="カギ線コネクタ 224"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="166" idx="2"/>
+          <a:endCxn id="90" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="1792222" y="25499599"/>
+          <a:ext cx="364603" cy="808"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>124279</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>165789</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>674077</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>64478</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="230" name="テキスト ボックス 229"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2146510" y="25348424"/>
+          <a:ext cx="549798" cy="235727"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Yes.</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>120257</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>129937</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1596632</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>139464</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="236" name="角丸四角形 235"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3864315" y="23795899"/>
+          <a:ext cx="1476375" cy="515084"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>予算入力画面を表示する</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1472711</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>7326</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>146538</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>65941</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="252" name="フローチャート: 結合子 251"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1773115" y="26538114"/>
+          <a:ext cx="395654" cy="395654"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>終わり</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -27101,8 +30457,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14586472" y="2382034"/>
-          <a:ext cx="761574" cy="1219888"/>
+          <a:off x="14695083" y="2393671"/>
+          <a:ext cx="766746" cy="1222905"/>
           <a:chOff x="1463040" y="660763"/>
           <a:chExt cx="1851660" cy="2890157"/>
         </a:xfrm>
@@ -28080,8 +31436,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14585399" y="4627212"/>
-          <a:ext cx="761574" cy="1224966"/>
+          <a:off x="14694010" y="4644882"/>
+          <a:ext cx="766746" cy="1227984"/>
           <a:chOff x="1564325" y="4236484"/>
           <a:chExt cx="2085230" cy="3081840"/>
         </a:xfrm>
@@ -28514,8 +31870,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="15550115" y="4622654"/>
-          <a:ext cx="761574" cy="1224966"/>
+          <a:off x="15663898" y="4640324"/>
+          <a:ext cx="766746" cy="1227984"/>
           <a:chOff x="4454828" y="4230623"/>
           <a:chExt cx="2085230" cy="3081840"/>
         </a:xfrm>
@@ -28997,8 +32353,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1395566" y="1442462"/>
-          <a:ext cx="759966" cy="1219888"/>
+          <a:off x="1405910" y="1451944"/>
+          <a:ext cx="765138" cy="1222905"/>
           <a:chOff x="3005086" y="2634348"/>
           <a:chExt cx="765139" cy="1222905"/>
         </a:xfrm>
@@ -30713,6 +34069,1232 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>369797</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>192253</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>10373</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="73" name="図 72"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7257105" y="8734986"/>
+          <a:ext cx="3954840" cy="6683906"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>464698</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>1673</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>323827</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>81716</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="正方形/長方形 81"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8729467" y="9849058"/>
+          <a:ext cx="547860" cy="248562"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>9/5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>（土）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>60517</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>475134</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>94129</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="テキスト ボックス 85"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7579664" y="9350188"/>
+          <a:ext cx="1098176" cy="392206"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>購入入力</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>107894</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>19037</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>183170</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>50093</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="95" name="正方形/長方形 94"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7683932" y="9866422"/>
+          <a:ext cx="764007" cy="199575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>購入日付</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>106428</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>24899</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>181704</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>55955</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="97" name="正方形/長方形 96"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7682466" y="10209322"/>
+          <a:ext cx="764007" cy="199575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>購入内容</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>366345</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>146539</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>307300</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>87924</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="正方形/長方形 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8631114" y="10162443"/>
+          <a:ext cx="1318417" cy="278423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>文房具</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>112288</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>60070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>187564</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>91126</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="98" name="正方形/長方形 97"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7688326" y="10581532"/>
+          <a:ext cx="764007" cy="199575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>金額</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>372205</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>13191</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>313160</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>123095</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="99" name="正方形/長方形 98"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8636974" y="10534653"/>
+          <a:ext cx="1318417" cy="278423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>200</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>118148</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>102569</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>193424</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>133625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="100" name="正方形/長方形 99"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7694186" y="10961069"/>
+          <a:ext cx="764007" cy="199575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>消費税</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>378065</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>55690</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>319020</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>165594</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="101" name="正方形/長方形 100"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8642834" y="10914190"/>
+          <a:ext cx="1318417" cy="278423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3%</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>6</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>124008</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>152395</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>199284</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>14931</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="102" name="正方形/長方形 101"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7700046" y="11347933"/>
+          <a:ext cx="764007" cy="199575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>支払方法</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>383925</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>105516</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>324880</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>46900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="103" name="正方形/長方形 102"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8648694" y="11301054"/>
+          <a:ext cx="1318417" cy="278423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>現金</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>367267</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>51278</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>586154</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>82334</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="104" name="正方形/長方形 103"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10009498" y="10572740"/>
+          <a:ext cx="218887" cy="199575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>円</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>373128</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>115756</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>592015</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>146812</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="105" name="正方形/長方形 104"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10015359" y="10974256"/>
+          <a:ext cx="218887" cy="199575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>円</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>137196</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>33698</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>212472</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>64754</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="109" name="正方形/長方形 108"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7713234" y="11734794"/>
+          <a:ext cx="764007" cy="199575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>購入先</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>397112</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>155338</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>309197</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>96723</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="110" name="正方形/長方形 109"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8661881" y="11687915"/>
+          <a:ext cx="1289547" cy="278423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>デイリー昭和町</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>135729</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>76196</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>211005</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>107252</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="114" name="正方形/長方形 113"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7711767" y="12114331"/>
+          <a:ext cx="764007" cy="199575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>適用</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>395645</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>29317</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>307730</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>139221</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="115" name="正方形/長方形 114"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8660414" y="12067452"/>
+          <a:ext cx="1289547" cy="278423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>替芯</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SXR-80-07</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>黒</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -31063,10 +35645,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E69"/>
+  <dimension ref="B2:E180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I76" sqref="I76"/>
+    <sheetView topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G107" sqref="G107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -31078,21 +35660,21 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C6" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>7</v>
@@ -31408,12 +35990,470 @@
       <c r="D68" s="2"/>
       <c r="E68" s="4"/>
     </row>
-    <row r="69" spans="3:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C69" s="5"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="7"/>
+    <row r="69" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C69" s="3"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="4"/>
+    </row>
+    <row r="70" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C70" s="3"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="4"/>
+    </row>
+    <row r="71" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C71" s="3"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="4"/>
+    </row>
+    <row r="72" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C72" s="3"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="4"/>
+    </row>
+    <row r="73" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C73" s="3"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="4"/>
+    </row>
+    <row r="74" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C74" s="3"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="4"/>
+    </row>
+    <row r="75" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C75" s="3"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="4"/>
+    </row>
+    <row r="76" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C76" s="3"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="4"/>
+    </row>
+    <row r="77" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C77" s="3"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="4"/>
+    </row>
+    <row r="78" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C78" s="3"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="4"/>
+    </row>
+    <row r="79" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C79" s="3"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="4"/>
+    </row>
+    <row r="80" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C80" s="3"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="4"/>
+    </row>
+    <row r="81" spans="3:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C81" s="5"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="7"/>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B101" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B103" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="105" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C105" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D105" s="15"/>
+      <c r="E105" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C106" s="11"/>
+      <c r="D106" s="12"/>
+      <c r="E106" s="4"/>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C107" s="11"/>
+      <c r="D107" s="12"/>
+      <c r="E107" s="4"/>
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C108" s="11"/>
+      <c r="D108" s="12"/>
+      <c r="E108" s="4"/>
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C109" s="11"/>
+      <c r="D109" s="12"/>
+      <c r="E109" s="4"/>
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C110" s="11"/>
+      <c r="D110" s="12"/>
+      <c r="E110" s="4"/>
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C111" s="11"/>
+      <c r="D111" s="12"/>
+      <c r="E111" s="4"/>
+    </row>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C112" s="11"/>
+      <c r="D112" s="12"/>
+      <c r="E112" s="4"/>
+    </row>
+    <row r="113" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C113" s="11"/>
+      <c r="D113" s="12"/>
+      <c r="E113" s="4"/>
+    </row>
+    <row r="114" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C114" s="11"/>
+      <c r="D114" s="12"/>
+      <c r="E114" s="4"/>
+    </row>
+    <row r="115" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C115" s="11"/>
+      <c r="D115" s="12"/>
+      <c r="E115" s="4"/>
+    </row>
+    <row r="116" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C116" s="11"/>
+      <c r="D116" s="12"/>
+      <c r="E116" s="4"/>
+    </row>
+    <row r="117" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C117" s="11"/>
+      <c r="D117" s="12"/>
+      <c r="E117" s="4"/>
+    </row>
+    <row r="118" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C118" s="11"/>
+      <c r="D118" s="12"/>
+      <c r="E118" s="4"/>
+    </row>
+    <row r="119" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C119" s="11"/>
+      <c r="D119" s="12"/>
+      <c r="E119" s="4"/>
+    </row>
+    <row r="120" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C120" s="11"/>
+      <c r="D120" s="12"/>
+      <c r="E120" s="4"/>
+    </row>
+    <row r="121" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C121" s="11"/>
+      <c r="D121" s="12"/>
+      <c r="E121" s="4"/>
+    </row>
+    <row r="122" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C122" s="11"/>
+      <c r="D122" s="12"/>
+      <c r="E122" s="4"/>
+    </row>
+    <row r="123" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C123" s="11"/>
+      <c r="D123" s="12"/>
+      <c r="E123" s="4"/>
+    </row>
+    <row r="124" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C124" s="11"/>
+      <c r="D124" s="12"/>
+      <c r="E124" s="4"/>
+    </row>
+    <row r="125" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C125" s="11"/>
+      <c r="D125" s="12"/>
+      <c r="E125" s="4"/>
+    </row>
+    <row r="126" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C126" s="11"/>
+      <c r="D126" s="12"/>
+      <c r="E126" s="4"/>
+    </row>
+    <row r="127" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C127" s="11"/>
+      <c r="D127" s="12"/>
+      <c r="E127" s="4"/>
+    </row>
+    <row r="128" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C128" s="11"/>
+      <c r="D128" s="12"/>
+      <c r="E128" s="4"/>
+    </row>
+    <row r="129" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C129" s="11"/>
+      <c r="D129" s="12"/>
+      <c r="E129" s="4"/>
+    </row>
+    <row r="130" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C130" s="11"/>
+      <c r="D130" s="12"/>
+      <c r="E130" s="4"/>
+    </row>
+    <row r="131" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C131" s="11"/>
+      <c r="D131" s="12"/>
+      <c r="E131" s="4"/>
+    </row>
+    <row r="132" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C132" s="11"/>
+      <c r="D132" s="12"/>
+      <c r="E132" s="4"/>
+    </row>
+    <row r="133" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C133" s="11"/>
+      <c r="D133" s="12"/>
+      <c r="E133" s="4"/>
+    </row>
+    <row r="134" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C134" s="11"/>
+      <c r="D134" s="12"/>
+      <c r="E134" s="4"/>
+    </row>
+    <row r="135" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C135" s="11"/>
+      <c r="D135" s="12"/>
+      <c r="E135" s="4"/>
+    </row>
+    <row r="136" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C136" s="11"/>
+      <c r="D136" s="12"/>
+      <c r="E136" s="4"/>
+    </row>
+    <row r="137" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C137" s="11"/>
+      <c r="D137" s="12"/>
+      <c r="E137" s="4"/>
+    </row>
+    <row r="138" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C138" s="11"/>
+      <c r="D138" s="12"/>
+      <c r="E138" s="4"/>
+    </row>
+    <row r="139" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C139" s="11"/>
+      <c r="D139" s="12"/>
+      <c r="E139" s="4"/>
+    </row>
+    <row r="140" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C140" s="11"/>
+      <c r="D140" s="12"/>
+      <c r="E140" s="4"/>
+    </row>
+    <row r="141" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C141" s="11"/>
+      <c r="D141" s="12"/>
+      <c r="E141" s="4"/>
+    </row>
+    <row r="142" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C142" s="11"/>
+      <c r="D142" s="12"/>
+      <c r="E142" s="4"/>
+    </row>
+    <row r="143" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C143" s="11"/>
+      <c r="D143" s="12"/>
+      <c r="E143" s="4"/>
+    </row>
+    <row r="144" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C144" s="11"/>
+      <c r="D144" s="12"/>
+      <c r="E144" s="4"/>
+    </row>
+    <row r="145" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C145" s="11"/>
+      <c r="D145" s="12"/>
+      <c r="E145" s="4"/>
+    </row>
+    <row r="146" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C146" s="11"/>
+      <c r="D146" s="12"/>
+      <c r="E146" s="4"/>
+    </row>
+    <row r="147" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C147" s="11"/>
+      <c r="D147" s="12"/>
+      <c r="E147" s="4"/>
+    </row>
+    <row r="148" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C148" s="11"/>
+      <c r="D148" s="12"/>
+      <c r="E148" s="4"/>
+    </row>
+    <row r="149" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C149" s="11"/>
+      <c r="D149" s="12"/>
+      <c r="E149" s="4"/>
+    </row>
+    <row r="150" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C150" s="11"/>
+      <c r="D150" s="12"/>
+      <c r="E150" s="4"/>
+    </row>
+    <row r="151" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C151" s="11"/>
+      <c r="D151" s="12"/>
+      <c r="E151" s="4"/>
+    </row>
+    <row r="152" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C152" s="11"/>
+      <c r="D152" s="12"/>
+      <c r="E152" s="4"/>
+    </row>
+    <row r="153" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C153" s="11"/>
+      <c r="D153" s="12"/>
+      <c r="E153" s="4"/>
+    </row>
+    <row r="154" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C154" s="11"/>
+      <c r="D154" s="12"/>
+      <c r="E154" s="4"/>
+    </row>
+    <row r="155" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C155" s="11"/>
+      <c r="D155" s="12"/>
+      <c r="E155" s="4"/>
+    </row>
+    <row r="156" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C156" s="11"/>
+      <c r="D156" s="12"/>
+      <c r="E156" s="4"/>
+    </row>
+    <row r="157" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C157" s="11"/>
+      <c r="D157" s="12"/>
+      <c r="E157" s="4"/>
+    </row>
+    <row r="158" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C158" s="11"/>
+      <c r="D158" s="12"/>
+      <c r="E158" s="4"/>
+    </row>
+    <row r="159" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C159" s="11"/>
+      <c r="D159" s="12"/>
+      <c r="E159" s="4"/>
+    </row>
+    <row r="160" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C160" s="11"/>
+      <c r="D160" s="12"/>
+      <c r="E160" s="4"/>
+    </row>
+    <row r="161" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C161" s="11"/>
+      <c r="D161" s="12"/>
+      <c r="E161" s="4"/>
+    </row>
+    <row r="162" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C162" s="11"/>
+      <c r="D162" s="12"/>
+      <c r="E162" s="4"/>
+    </row>
+    <row r="163" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C163" s="11"/>
+      <c r="D163" s="12"/>
+      <c r="E163" s="4"/>
+    </row>
+    <row r="164" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C164" s="11"/>
+      <c r="D164" s="12"/>
+      <c r="E164" s="4"/>
+    </row>
+    <row r="165" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C165" s="11"/>
+      <c r="D165" s="12"/>
+      <c r="E165" s="4"/>
+    </row>
+    <row r="166" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C166" s="11"/>
+      <c r="D166" s="12"/>
+      <c r="E166" s="4"/>
+    </row>
+    <row r="167" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C167" s="11"/>
+      <c r="D167" s="12"/>
+      <c r="E167" s="4"/>
+    </row>
+    <row r="168" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C168" s="11"/>
+      <c r="D168" s="12"/>
+      <c r="E168" s="4"/>
+    </row>
+    <row r="169" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C169" s="11"/>
+      <c r="D169" s="12"/>
+      <c r="E169" s="4"/>
+    </row>
+    <row r="170" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C170" s="11"/>
+      <c r="D170" s="12"/>
+      <c r="E170" s="4"/>
+    </row>
+    <row r="171" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C171" s="11"/>
+      <c r="D171" s="12"/>
+      <c r="E171" s="4"/>
+    </row>
+    <row r="172" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C172" s="11"/>
+      <c r="D172" s="12"/>
+      <c r="E172" s="4"/>
+    </row>
+    <row r="173" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C173" s="11"/>
+      <c r="D173" s="12"/>
+      <c r="E173" s="4"/>
+    </row>
+    <row r="174" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C174" s="11"/>
+      <c r="D174" s="12"/>
+      <c r="E174" s="4"/>
+    </row>
+    <row r="175" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C175" s="11"/>
+      <c r="D175" s="12"/>
+      <c r="E175" s="4"/>
+    </row>
+    <row r="176" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C176" s="11"/>
+      <c r="D176" s="12"/>
+      <c r="E176" s="4"/>
+    </row>
+    <row r="177" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C177" s="11"/>
+      <c r="D177" s="12"/>
+      <c r="E177" s="4"/>
+    </row>
+    <row r="178" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C178" s="11"/>
+      <c r="D178" s="12"/>
+      <c r="E178" s="4"/>
+    </row>
+    <row r="179" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C179" s="11"/>
+      <c r="D179" s="12"/>
+      <c r="E179" s="4"/>
+    </row>
+    <row r="180" spans="3:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C180" s="13"/>
+      <c r="D180" s="14"/>
+      <c r="E180" s="7"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C105:D105"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -31425,8 +36465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="J1:S2"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" topLeftCell="E10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J65" sqref="J65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
